--- a/data/trans_dic/P25A_9_R2-Urba-trans_dic.xlsx
+++ b/data/trans_dic/P25A_9_R2-Urba-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:T12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -529,12 +530,18 @@
     <col width="14" customWidth="1" min="12" max="12"/>
     <col width="14" customWidth="1" min="13" max="13"/>
     <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población con limitación por mala circulación</t>
+          <t>Población con limitación por mala circulación (tasa de respuesta: 99,83%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -546,22 +553,28 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
       <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -588,42 +601,72 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="Q2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="R2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -642,6 +685,12 @@
       <c r="L3" s="2" t="n"/>
       <c r="M3" s="2" t="n"/>
       <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -656,62 +705,92 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>2,99%</t>
+          <t>3,04%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>2,2%</t>
+          <t>2,12%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>1,69%</t>
+          <t>1,67%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>44,14%</t>
+          <t>3,22%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>4,51%</t>
+          <t>4,5%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>4,46%</t>
+          <t>2,96%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>4,78%</t>
+          <t>4,85%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>30,58%</t>
+          <t>4,48%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>3,78%</t>
+          <t>4,9%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>3,38%</t>
+          <t>6,43%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>3,31%</t>
+          <t>8,86%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>33,98%</t>
+          <t>10,0%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>3,98%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>3,36%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>3,36%</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>4,85%</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>6,71%</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>6,65%</t>
         </is>
       </c>
     </row>
@@ -724,62 +803,92 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,53; 6,25</t>
+          <t>1,67; 6,5</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,22; 4,48</t>
+          <t>1,11; 4,15</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,96; 2,77</t>
+          <t>0,91; 2,75</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>30,47; 57,39</t>
+          <t>2,05; 4,8</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>3,01; 6,26</t>
+          <t>3,1; 6,47</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>3,12; 6,13</t>
+          <t>1,73; 4,79</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>3,42; 6,58</t>
+          <t>3,31; 6,62</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>23,01; 38,36</t>
+          <t>3,1; 6,24</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>2,77; 5,54</t>
+          <t>3,55; 6,64</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>2,46; 4,69</t>
+          <t>4,9; 8,45</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>2,46; 4,32</t>
+          <t>7,05; 11,01</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>27,78; 41,15</t>
+          <t>7,71; 13,55</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>2,95; 5,64</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>2,47; 4,55</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>2,53; 4,3</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>3,84; 6,13</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>5,5; 8,22</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>5,21; 8,57</t>
         </is>
       </c>
     </row>
@@ -796,62 +905,92 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>1,31%</t>
+          <t>1,4%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,64%</t>
+          <t>0,63%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>1,62%</t>
+          <t>1,57%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>48,56%</t>
+          <t>3,12%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>5,08%</t>
+          <t>3,54%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>4,15%</t>
+          <t>3,23%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>5,2%</t>
+          <t>5,66%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>45,54%</t>
+          <t>4,13%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>3,2%</t>
+          <t>5,7%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>2,39%</t>
+          <t>9,77%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>3,4%</t>
+          <t>10,56%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>46,29%</t>
+          <t>9,43%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>3,53%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>2,37%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>3,63%</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>6,28%</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>6,89%</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>6,31%</t>
         </is>
       </c>
     </row>
@@ -864,62 +1003,92 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,59; 2,73</t>
+          <t>0,55; 2,81</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,22; 1,75</t>
+          <t>0,14; 1,56</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,75; 2,98</t>
+          <t>0,73; 2,83</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>23,04; 74,79</t>
+          <t>1,3; 6,07</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>3,41; 7,17</t>
+          <t>1,55; 6,56</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>2,64; 6,06</t>
+          <t>1,88; 5,5</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>3,56; 8,05</t>
+          <t>3,98; 8,2</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>30,32; 60,12</t>
+          <t>2,75; 6,01</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>2,24; 4,32</t>
+          <t>3,83; 9,72</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>1,56; 3,34</t>
+          <t>6,07; 15,0</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>2,38; 5,05</t>
+          <t>6,78; 15,38</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>33,36; 59,17</t>
+          <t>6,9; 12,97</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>2,49; 4,84</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>1,6; 3,35</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>2,57; 5,82</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>4,33; 9,19</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>4,96; 9,82</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>4,74; 8,21</t>
         </is>
       </c>
     </row>
@@ -936,17 +1105,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>2,8%</t>
+          <t>3,39%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>4,4%</t>
+          <t>4,64%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>2,03%</t>
+          <t>2,43%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -956,42 +1125,72 @@
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>11,72%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>5,39%</t>
+          <t>2,97%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>7,08%</t>
+          <t>9,49%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
+          <t>5,66%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>7,1%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>7,16%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>4,89%</t>
-        </is>
-      </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>4,52%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
+          <t>9,05%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>6,37%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>5,15%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>4,74%</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>5,97%</t>
         </is>
       </c>
     </row>
@@ -1004,17 +1203,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,77; 7,27</t>
+          <t>0,87; 7,89</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,88; 8,63</t>
+          <t>2,03; 10,34</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,39; 5,78</t>
+          <t>0,46; 7,39</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -1024,42 +1223,72 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>6,22; 19,93</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>2,54; 9,64</t>
+          <t>0,93; 7,99</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>3,98; 12,27</t>
+          <t>5,16; 15,93</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
+          <t>2,84; 9,87</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>3,54; 12,17</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>4,1; 11,57</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>2,91; 7,75</t>
-        </is>
-      </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>2,56; 7,65</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
+          <t>4,46; 16,75</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>3,82; 10,04</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>3,19; 8,5</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>2,6; 7,99</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>3,54; 9,96</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1305,92 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>2,3%</t>
+          <t>2,43%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>1,84%</t>
+          <t>1,83%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>1,7%</t>
+          <t>1,72%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>45,11%</t>
+          <t>3,19%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>5,54%</t>
+          <t>4,27%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>4,45%</t>
+          <t>3,07%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>5,2%</t>
+          <t>5,68%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>33,88%</t>
+          <t>4,48%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>3,95%</t>
+          <t>5,46%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>3,17%</t>
+          <t>7,16%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>3,49%</t>
+          <t>9,24%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>36,69%</t>
+          <t>9,67%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>4,09%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>3,18%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>3,63%</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>5,18%</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>6,76%</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>6,44%</t>
         </is>
       </c>
     </row>
@@ -1144,75 +1403,1519 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,43; 3,8</t>
+          <t>1,52; 3,88</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,16; 2,88</t>
+          <t>1,2; 2,85</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1,13; 2,51</t>
+          <t>1,15; 2,67</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>33,95; 57,7</t>
+          <t>2,21; 4,57</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>4,36; 6,99</t>
+          <t>3,2; 6,15</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>3,51; 5,54</t>
+          <t>2,09; 4,42</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>4,13; 6,59</t>
+          <t>4,46; 7,14</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>26,86; 40,74</t>
+          <t>3,52; 5,72</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>3,15; 4,89</t>
+          <t>4,21; 6,96</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>2,61; 4,0</t>
+          <t>5,66; 9,04</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>2,89; 4,32</t>
+          <t>7,67; 11,19</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>30,75; 43,11</t>
+          <t>7,78; 11,66</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>3,25; 5,12</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>2,54; 3,87</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>2,95; 4,64</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>4,3; 6,39</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>5,73; 7,95</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>5,31; 7,67</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="O1:T1"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="I1:N1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C1:H1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:T16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población con limitación por mala circulación (tasa de respuesta: 99,83%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Urbano</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>55.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>81.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>53.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>45.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>49.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>54.0</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>78.0</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>112.0</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>70.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>50096</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>34992</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>27425</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>7348</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>10270</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>48504</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>87181</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>81581</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>88873</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>15219</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>20871</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>180360</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>137277</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>116573</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>116298</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>22567</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>31142</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>228863</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>27599; 107174</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>18211; 68350</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>14912; 45305</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>4696; 10961</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>7080; 14764</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>28299; 78318</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>59529; 118976</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>56515; 113674</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>64437; 120498</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>11590; 19993</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>16616; 25939</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>139075; 244235</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>101864; 194319</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>85645; 157840</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>87686; 148675</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>17872; 28502</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>25517; 38105</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>179180; 294851</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>41.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>55.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>19242</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>8632</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>21577</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>2253</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>2580</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>44583</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>78174</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>56551</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>78355</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>6406</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>7064</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>128450</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>97417</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>65183</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>99933</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>8659</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>9644</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>173033</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>7554; 38610</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>1960; 21547</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>10112; 38925</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>940; 4386</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>1133; 4786</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>25891; 75912</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>55031; 113351</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>37666; 82321</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>52552; 133552</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>3976; 9834</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>4537; 10295</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>94003; 176688</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>68558; 133286</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>43991; 92149</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>70593; 160163</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>5970; 12665</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>6932; 13741</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>129860; 225255</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>14219</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>19499</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>10291</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>12565</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>38044</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>23086</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>29260</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>37260</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>52263</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>42585</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>39551</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>49825</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>3636; 33114</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>8539; 43406</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>1958; 31234</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>3947; 33790</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>20680; 63866</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>11582; 40273</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>14596; 50117</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>18362; 68996</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>31336; 82376</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>26382; 70361</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>21739; 66733</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>29540; 83162</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>72.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>71.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>80.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>76.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>105.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>105.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>97.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>95.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>107.0</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>107.0</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>145.0</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>140.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>83557</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>63123</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>59294</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>9601</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>12850</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>105651</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>203400</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>161218</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>196488</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>21625</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>27935</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>346070</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>286957</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>224341</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>255782</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>31226</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>40785</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>451721</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>52417; 133508</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>41199; 98209</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>39570; 91866</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>6662; 13758</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>9648; 18511</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>72011; 152038</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>159735; 255603</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>126813; 205998</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>151656; 250446</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>17102; 27334</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>23207; 33837</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>278436; 417160</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>228285; 359783</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>178625; 273001</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>208071; 327247</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>25934; 38561</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>34569; 48001</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>372469; 538127</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="O1:T1"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
